--- a/at_t/DataTest/SearchItems.xlsx
+++ b/at_t/DataTest/SearchItems.xlsx
@@ -12,21 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Sl</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Items</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>iphone 11</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>apple watch</t>
@@ -77,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,32 +78,20 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
